--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.049140666666666</v>
+        <v>8.542726333333333</v>
       </c>
       <c r="H2">
-        <v>24.147422</v>
+        <v>25.628179</v>
       </c>
       <c r="I2">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="J2">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.753826</v>
+        <v>101.1420973333333</v>
       </c>
       <c r="N2">
-        <v>284.261478</v>
+        <v>303.426292</v>
       </c>
       <c r="O2">
-        <v>0.7335560900324892</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="P2">
-        <v>0.7335560900324893</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="Q2">
-        <v>762.6868741788574</v>
+        <v>864.0292582980296</v>
       </c>
       <c r="R2">
-        <v>6864.181867609715</v>
+        <v>7776.263324682266</v>
       </c>
       <c r="S2">
-        <v>0.1435685725129237</v>
+        <v>0.1442645986559986</v>
       </c>
       <c r="T2">
-        <v>0.1435685725129237</v>
+        <v>0.1442645986559986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.049140666666666</v>
+        <v>8.542726333333333</v>
       </c>
       <c r="H3">
-        <v>24.147422</v>
+        <v>25.628179</v>
       </c>
       <c r="I3">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="J3">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.492958</v>
       </c>
       <c r="O3">
-        <v>0.009013815840103748</v>
+        <v>0.007736938980150513</v>
       </c>
       <c r="P3">
-        <v>0.00901381584010375</v>
+        <v>0.007736938980150512</v>
       </c>
       <c r="Q3">
-        <v>9.371770094919555</v>
+        <v>9.946461429275777</v>
       </c>
       <c r="R3">
-        <v>84.34593085427599</v>
+        <v>89.51815286348199</v>
       </c>
       <c r="S3">
-        <v>0.001764146860263623</v>
+        <v>0.001660733421190341</v>
       </c>
       <c r="T3">
-        <v>0.001764146860263623</v>
+        <v>0.001660733421190341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.049140666666666</v>
+        <v>8.542726333333333</v>
       </c>
       <c r="H4">
-        <v>24.147422</v>
+        <v>25.628179</v>
       </c>
       <c r="I4">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="J4">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.01913766666667</v>
+        <v>26.91044433333333</v>
       </c>
       <c r="N4">
-        <v>36.057413</v>
+        <v>80.73133300000001</v>
       </c>
       <c r="O4">
-        <v>0.09304860821474602</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="P4">
-        <v>0.09304860821474603</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="Q4">
-        <v>96.74372977103177</v>
+        <v>229.8885614480674</v>
       </c>
       <c r="R4">
-        <v>870.6935679392859</v>
+        <v>2068.997053032607</v>
       </c>
       <c r="S4">
-        <v>0.01821108983651642</v>
+        <v>0.03838386343332691</v>
       </c>
       <c r="T4">
-        <v>0.01821108983651643</v>
+        <v>0.03838386343332691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.049140666666666</v>
+        <v>8.542726333333333</v>
       </c>
       <c r="H5">
-        <v>24.147422</v>
+        <v>25.628179</v>
       </c>
       <c r="I5">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="J5">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.968298333333333</v>
+        <v>0.7853516666666667</v>
       </c>
       <c r="N5">
-        <v>5.904895</v>
+        <v>2.356055</v>
       </c>
       <c r="O5">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="P5">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="Q5">
-        <v>15.84311015896555</v>
+        <v>6.709044363760555</v>
       </c>
       <c r="R5">
-        <v>142.58799143069</v>
+        <v>60.38139927384499</v>
       </c>
       <c r="S5">
-        <v>0.002982315268158496</v>
+        <v>0.001120190761143595</v>
       </c>
       <c r="T5">
-        <v>0.002982315268158497</v>
+        <v>0.001120190761143595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.049140666666666</v>
+        <v>8.542726333333333</v>
       </c>
       <c r="H6">
-        <v>24.147422</v>
+        <v>25.628179</v>
       </c>
       <c r="I6">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="J6">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.26494466666667</v>
+        <v>20.486157</v>
       </c>
       <c r="N6">
-        <v>57.794834</v>
+        <v>61.458471</v>
       </c>
       <c r="O6">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="P6">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="Q6">
-        <v>155.0662495575498</v>
+        <v>175.007632872701</v>
       </c>
       <c r="R6">
-        <v>1395.596246017948</v>
+        <v>1575.068695854309</v>
       </c>
       <c r="S6">
-        <v>0.02918975119098405</v>
+        <v>0.0292205451096055</v>
       </c>
       <c r="T6">
-        <v>0.02918975119098406</v>
+        <v>0.02922054510960549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>31.634986</v>
       </c>
       <c r="I7">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="J7">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>94.753826</v>
+        <v>101.1420973333333</v>
       </c>
       <c r="N7">
-        <v>284.261478</v>
+        <v>303.426292</v>
       </c>
       <c r="O7">
-        <v>0.7335560900324892</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="P7">
-        <v>0.7335560900324893</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="Q7">
-        <v>999.1786529854786</v>
+        <v>1066.542944383546</v>
       </c>
       <c r="R7">
-        <v>8992.607876869308</v>
+        <v>9598.886499451912</v>
       </c>
       <c r="S7">
-        <v>0.1880859075344078</v>
+        <v>0.178077754130644</v>
       </c>
       <c r="T7">
-        <v>0.1880859075344079</v>
+        <v>0.178077754130644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>31.634986</v>
       </c>
       <c r="I8">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="J8">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.492958</v>
       </c>
       <c r="O8">
-        <v>0.009013815840103748</v>
+        <v>0.007736938980150513</v>
       </c>
       <c r="P8">
-        <v>0.00901381584010375</v>
+        <v>0.007736938980150512</v>
       </c>
       <c r="Q8">
         <v>12.27774193650978</v>
@@ -948,10 +948,10 @@
         <v>110.499677428588</v>
       </c>
       <c r="S8">
-        <v>0.00231116850595412</v>
+        <v>0.002049980942036051</v>
       </c>
       <c r="T8">
-        <v>0.002311168505954121</v>
+        <v>0.002049980942036051</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>31.634986</v>
       </c>
       <c r="I9">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="J9">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.01913766666667</v>
+        <v>26.91044433333333</v>
       </c>
       <c r="N9">
-        <v>36.057413</v>
+        <v>80.73133300000001</v>
       </c>
       <c r="O9">
-        <v>0.09304860821474602</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="P9">
-        <v>0.09304860821474603</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="Q9">
-        <v>126.7417506056909</v>
+        <v>283.7705099129265</v>
       </c>
       <c r="R9">
-        <v>1140.675755451218</v>
+        <v>2553.934589216338</v>
       </c>
       <c r="S9">
-        <v>0.02385793282707112</v>
+        <v>0.04738038478423336</v>
       </c>
       <c r="T9">
-        <v>0.02385793282707112</v>
+        <v>0.04738038478423336</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>31.634986</v>
       </c>
       <c r="I10">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="J10">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.968298333333333</v>
+        <v>0.7853516666666667</v>
       </c>
       <c r="N10">
-        <v>5.904895</v>
+        <v>2.356055</v>
       </c>
       <c r="O10">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="P10">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="Q10">
-        <v>20.75569673960777</v>
+        <v>8.281529660025555</v>
       </c>
       <c r="R10">
-        <v>186.80127065647</v>
+        <v>74.53376694023</v>
       </c>
       <c r="S10">
-        <v>0.003907063112400995</v>
+        <v>0.001382744323976627</v>
       </c>
       <c r="T10">
-        <v>0.003907063112400996</v>
+        <v>0.001382744323976626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>31.634986</v>
       </c>
       <c r="I11">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="J11">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.26494466666667</v>
+        <v>20.486157</v>
       </c>
       <c r="N11">
-        <v>57.794834</v>
+        <v>61.458471</v>
       </c>
       <c r="O11">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="P11">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="Q11">
-        <v>203.1487516069249</v>
+        <v>216.026429962934</v>
       </c>
       <c r="R11">
-        <v>1828.338764462324</v>
+        <v>1944.237869666406</v>
       </c>
       <c r="S11">
-        <v>0.03824082629898396</v>
+        <v>0.03606934130804761</v>
       </c>
       <c r="T11">
-        <v>0.03824082629898397</v>
+        <v>0.03606934130804761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.09243133333333</v>
+        <v>10.06002866666667</v>
       </c>
       <c r="H12">
-        <v>30.277294</v>
+        <v>30.180086</v>
       </c>
       <c r="I12">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="J12">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>94.753826</v>
+        <v>101.1420973333333</v>
       </c>
       <c r="N12">
-        <v>284.261478</v>
+        <v>303.426292</v>
       </c>
       <c r="O12">
-        <v>0.7335560900324892</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="P12">
-        <v>0.7335560900324893</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="Q12">
-        <v>956.2964824756148</v>
+        <v>1017.492398580123</v>
       </c>
       <c r="R12">
-        <v>8606.668342280533</v>
+        <v>9157.431587221112</v>
       </c>
       <c r="S12">
-        <v>0.1800137455308525</v>
+        <v>0.169887918848761</v>
       </c>
       <c r="T12">
-        <v>0.1800137455308525</v>
+        <v>0.169887918848761</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.09243133333333</v>
+        <v>10.06002866666667</v>
       </c>
       <c r="H13">
-        <v>30.277294</v>
+        <v>30.180086</v>
       </c>
       <c r="I13">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="J13">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.492958</v>
       </c>
       <c r="O13">
-        <v>0.009013815840103748</v>
+        <v>0.007736938980150513</v>
       </c>
       <c r="P13">
-        <v>0.00901381584010375</v>
+        <v>0.007736938980150512</v>
       </c>
       <c r="Q13">
-        <v>11.75081292173911</v>
+        <v>11.71308587048755</v>
       </c>
       <c r="R13">
-        <v>105.757316295652</v>
+        <v>105.417772834388</v>
       </c>
       <c r="S13">
-        <v>0.002211979115094714</v>
+        <v>0.001955701865302202</v>
       </c>
       <c r="T13">
-        <v>0.002211979115094714</v>
+        <v>0.001955701865302202</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.09243133333333</v>
+        <v>10.06002866666667</v>
       </c>
       <c r="H14">
-        <v>30.277294</v>
+        <v>30.180086</v>
       </c>
       <c r="I14">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="J14">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.01913766666667</v>
+        <v>26.91044433333333</v>
       </c>
       <c r="N14">
-        <v>36.057413</v>
+        <v>80.73133300000001</v>
       </c>
       <c r="O14">
-        <v>0.09304860821474602</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="P14">
-        <v>0.09304860821474603</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="Q14">
-        <v>121.3023215867135</v>
+        <v>270.7198414260709</v>
       </c>
       <c r="R14">
-        <v>1091.720894280422</v>
+        <v>2436.478572834638</v>
       </c>
       <c r="S14">
-        <v>0.02283401188916232</v>
+        <v>0.04520135041315505</v>
       </c>
       <c r="T14">
-        <v>0.02283401188916232</v>
+        <v>0.04520135041315505</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.09243133333333</v>
+        <v>10.06002866666667</v>
       </c>
       <c r="H15">
-        <v>30.277294</v>
+        <v>30.180086</v>
       </c>
       <c r="I15">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="J15">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.968298333333333</v>
+        <v>0.7853516666666667</v>
       </c>
       <c r="N15">
-        <v>5.904895</v>
+        <v>2.356055</v>
       </c>
       <c r="O15">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="P15">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="Q15">
-        <v>19.86491577268111</v>
+        <v>7.900660280081111</v>
       </c>
       <c r="R15">
-        <v>178.78424195413</v>
+        <v>71.10594252073</v>
       </c>
       <c r="S15">
-        <v>0.003739382041475219</v>
+        <v>0.001319151606819945</v>
       </c>
       <c r="T15">
-        <v>0.00373938204147522</v>
+        <v>0.001319151606819944</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.09243133333333</v>
+        <v>10.06002866666667</v>
       </c>
       <c r="H16">
-        <v>30.277294</v>
+        <v>30.180086</v>
       </c>
       <c r="I16">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="J16">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.26494466666667</v>
+        <v>20.486157</v>
       </c>
       <c r="N16">
-        <v>57.794834</v>
+        <v>61.458471</v>
       </c>
       <c r="O16">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="P16">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="Q16">
-        <v>194.4301311887996</v>
+        <v>206.091326689834</v>
       </c>
       <c r="R16">
-        <v>1749.871180699196</v>
+        <v>1854.821940208506</v>
       </c>
       <c r="S16">
-        <v>0.03659962867242203</v>
+        <v>0.03441050432708361</v>
       </c>
       <c r="T16">
-        <v>0.03659962867242204</v>
+        <v>0.0344105043270836</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.473166333333333</v>
+        <v>3.225032333333334</v>
       </c>
       <c r="H17">
-        <v>10.419499</v>
+        <v>9.675097000000001</v>
       </c>
       <c r="I17">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="J17">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>94.753826</v>
+        <v>101.1420973333333</v>
       </c>
       <c r="N17">
-        <v>284.261478</v>
+        <v>303.426292</v>
       </c>
       <c r="O17">
-        <v>0.7335560900324892</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="P17">
-        <v>0.7335560900324893</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="Q17">
-        <v>329.0957984177247</v>
+        <v>326.1865341611471</v>
       </c>
       <c r="R17">
-        <v>2961.862185759522</v>
+        <v>2935.678807450324</v>
       </c>
       <c r="S17">
-        <v>0.06194916367179221</v>
+        <v>0.05446247217419763</v>
       </c>
       <c r="T17">
-        <v>0.06194916367179221</v>
+        <v>0.05446247217419763</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.473166333333333</v>
+        <v>3.225032333333334</v>
       </c>
       <c r="H18">
-        <v>10.419499</v>
+        <v>9.675097000000001</v>
       </c>
       <c r="I18">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="J18">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.492958</v>
       </c>
       <c r="O18">
-        <v>0.009013815840103748</v>
+        <v>0.007736938980150513</v>
       </c>
       <c r="P18">
-        <v>0.00901381584010375</v>
+        <v>0.007736938980150512</v>
       </c>
       <c r="Q18">
-        <v>4.043874709782444</v>
+        <v>3.754967496325111</v>
       </c>
       <c r="R18">
-        <v>36.394872388042</v>
+        <v>33.794707466926</v>
       </c>
       <c r="S18">
-        <v>0.0007612210713992556</v>
+        <v>0.0006269566378929385</v>
       </c>
       <c r="T18">
-        <v>0.0007612210713992558</v>
+        <v>0.0006269566378929385</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.473166333333333</v>
+        <v>3.225032333333334</v>
       </c>
       <c r="H19">
-        <v>10.419499</v>
+        <v>9.675097000000001</v>
       </c>
       <c r="I19">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="J19">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.01913766666667</v>
+        <v>26.91044433333333</v>
       </c>
       <c r="N19">
-        <v>36.057413</v>
+        <v>80.73133300000001</v>
       </c>
       <c r="O19">
-        <v>0.09304860821474602</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="P19">
-        <v>0.09304860821474603</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="Q19">
-        <v>41.74446429956522</v>
+        <v>86.78705307936679</v>
       </c>
       <c r="R19">
-        <v>375.700178696087</v>
+        <v>781.0834777143011</v>
       </c>
       <c r="S19">
-        <v>0.007857999596830379</v>
+        <v>0.01449059654032349</v>
       </c>
       <c r="T19">
-        <v>0.007857999596830381</v>
+        <v>0.01449059654032349</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.473166333333333</v>
+        <v>3.225032333333334</v>
       </c>
       <c r="H20">
-        <v>10.419499</v>
+        <v>9.675097000000001</v>
       </c>
       <c r="I20">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="J20">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.968298333333333</v>
+        <v>0.7853516666666667</v>
       </c>
       <c r="N20">
-        <v>5.904895</v>
+        <v>2.356055</v>
       </c>
       <c r="O20">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="P20">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="Q20">
-        <v>6.836227505289444</v>
+        <v>2.532784518037222</v>
       </c>
       <c r="R20">
-        <v>61.526047547605</v>
+        <v>22.795060662335</v>
       </c>
       <c r="S20">
-        <v>0.00128685500896378</v>
+        <v>0.0004228920936040019</v>
       </c>
       <c r="T20">
-        <v>0.00128685500896378</v>
+        <v>0.0004228920936040018</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.473166333333333</v>
+        <v>3.225032333333334</v>
       </c>
       <c r="H21">
-        <v>10.419499</v>
+        <v>9.675097000000001</v>
       </c>
       <c r="I21">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="J21">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.26494466666667</v>
+        <v>20.486157</v>
       </c>
       <c r="N21">
-        <v>57.794834</v>
+        <v>61.458471</v>
       </c>
       <c r="O21">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="P21">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="Q21">
-        <v>66.91035722979623</v>
+        <v>66.06851871074301</v>
       </c>
       <c r="R21">
-        <v>602.1932150681661</v>
+        <v>594.616668396687</v>
       </c>
       <c r="S21">
-        <v>0.01259524032605664</v>
+        <v>0.0110312796054807</v>
       </c>
       <c r="T21">
-        <v>0.01259524032605664</v>
+        <v>0.0110312796054807</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.966928333333334</v>
+        <v>7.425629000000001</v>
       </c>
       <c r="H22">
-        <v>26.900785</v>
+        <v>22.276887</v>
       </c>
       <c r="I22">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="J22">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>94.753826</v>
+        <v>101.1420973333333</v>
       </c>
       <c r="N22">
-        <v>284.261478</v>
+        <v>303.426292</v>
       </c>
       <c r="O22">
-        <v>0.7335560900324892</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="P22">
-        <v>0.7335560900324893</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="Q22">
-        <v>849.6507670511368</v>
+        <v>751.0436910792226</v>
       </c>
       <c r="R22">
-        <v>7646.85690346023</v>
+        <v>6759.393219713004</v>
       </c>
       <c r="S22">
-        <v>0.1599387007825129</v>
+        <v>0.1253997079683279</v>
       </c>
       <c r="T22">
-        <v>0.159938700782513</v>
+        <v>0.1253997079683279</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.966928333333334</v>
+        <v>7.425629000000001</v>
       </c>
       <c r="H23">
-        <v>26.900785</v>
+        <v>22.276887</v>
       </c>
       <c r="I23">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="J23">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.492958</v>
       </c>
       <c r="O23">
-        <v>0.009013815840103748</v>
+        <v>0.007736938980150513</v>
       </c>
       <c r="P23">
-        <v>0.00901381584010375</v>
+        <v>0.007736938980150512</v>
       </c>
       <c r="Q23">
-        <v>10.44036801911444</v>
+        <v>8.645803406860667</v>
       </c>
       <c r="R23">
-        <v>93.96331217202999</v>
+        <v>77.812230661746</v>
       </c>
       <c r="S23">
-        <v>0.001965300287392036</v>
+        <v>0.00144356611372898</v>
       </c>
       <c r="T23">
-        <v>0.001965300287392036</v>
+        <v>0.001443566113728979</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.966928333333334</v>
+        <v>7.425629000000001</v>
       </c>
       <c r="H24">
-        <v>26.900785</v>
+        <v>22.276887</v>
       </c>
       <c r="I24">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="J24">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.01913766666667</v>
+        <v>26.91044433333333</v>
       </c>
       <c r="N24">
-        <v>36.057413</v>
+        <v>80.73133300000001</v>
       </c>
       <c r="O24">
-        <v>0.09304860821474602</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="P24">
-        <v>0.09304860821474603</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="Q24">
-        <v>107.7747460854672</v>
+        <v>199.8269758444857</v>
       </c>
       <c r="R24">
-        <v>969.9727147692049</v>
+        <v>1798.442782600371</v>
       </c>
       <c r="S24">
-        <v>0.02028757406516577</v>
+        <v>0.03336456282468044</v>
       </c>
       <c r="T24">
-        <v>0.02028757406516578</v>
+        <v>0.03336456282468044</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.966928333333334</v>
+        <v>7.425629000000001</v>
       </c>
       <c r="H25">
-        <v>26.900785</v>
+        <v>22.276887</v>
       </c>
       <c r="I25">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="J25">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.968298333333333</v>
+        <v>0.7853516666666667</v>
       </c>
       <c r="N25">
-        <v>5.904895</v>
+        <v>2.356055</v>
       </c>
       <c r="O25">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="P25">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="Q25">
-        <v>17.64959009361944</v>
+        <v>5.831730111198334</v>
       </c>
       <c r="R25">
-        <v>158.846310842575</v>
+        <v>52.48557100078501</v>
       </c>
       <c r="S25">
-        <v>0.003322367987396296</v>
+        <v>0.0009737080033833019</v>
       </c>
       <c r="T25">
-        <v>0.003322367987396297</v>
+        <v>0.0009737080033833017</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.966928333333334</v>
+        <v>7.425629000000001</v>
       </c>
       <c r="H26">
-        <v>26.900785</v>
+        <v>22.276887</v>
       </c>
       <c r="I26">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="J26">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.26494466666667</v>
+        <v>20.486157</v>
       </c>
       <c r="N26">
-        <v>57.794834</v>
+        <v>61.458471</v>
       </c>
       <c r="O26">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="P26">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="Q26">
-        <v>172.7473781716322</v>
+        <v>152.122601517753</v>
       </c>
       <c r="R26">
-        <v>1554.72640354469</v>
+        <v>1369.103413659777</v>
       </c>
       <c r="S26">
-        <v>0.03251805600581942</v>
+        <v>0.02539949410705631</v>
       </c>
       <c r="T26">
-        <v>0.03251805600581943</v>
+        <v>0.02539949410705631</v>
       </c>
     </row>
   </sheetData>
